--- a/deployment/Omaha_Cal_Info_GP05MOAS-GL363_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GP05MOAS-GL363_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GP05MOAS-GL363\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12444" yWindow="10044" windowWidth="22800" windowHeight="9696" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="12450" yWindow="10050" windowWidth="22800" windowHeight="9690" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>N00631</t>
+  </si>
+  <si>
+    <t>OL000126</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,7 +604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -816,18 +819,18 @@
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="35.44140625" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
@@ -877,7 +880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -927,7 +930,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -947,23 +950,23 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -989,7 +992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>31</v>
       </c>
@@ -1002,7 +1005,9 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
       <c r="F3" s="3">
         <v>363</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1040,7 +1045,7 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1070,7 +1075,7 @@
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1100,7 +1105,7 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -1130,7 +1135,7 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>34</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="I10" s="6"/>

--- a/deployment/Omaha_Cal_Info_GP05MOAS-GL363_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GP05MOAS-GL363_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="10050" windowWidth="22800" windowHeight="9690" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="12460" yWindow="10060" windowWidth="22800" windowHeight="9700" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$84</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$371</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -371,7 +366,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,9 +387,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -569,7 +561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,7 +596,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,72 +807,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="35.5" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" ht="28">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="11" customFormat="1">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -893,13 +885,13 @@
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>41474</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>0.95833333333333337</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>41805</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -908,10 +900,10 @@
       <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="9"/>
@@ -923,14 +915,14 @@
         <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
         <v>-144.798</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="10">
         <v>41473</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="10">
         <v>41793</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -949,51 +941,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" ht="28">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:12" s="3" customFormat="1">
+      <c r="A3" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
@@ -1015,7 +1007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="3" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1034,10 +1026,10 @@
       <c r="F4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>140</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -1045,14 +1037,14 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>363</v>
       </c>
       <c r="D5" s="6">
@@ -1061,13 +1053,13 @@
       <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>700</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -1075,14 +1067,14 @@
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>363</v>
       </c>
       <c r="D6" s="6">
@@ -1091,13 +1083,13 @@
       <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>1.0960000000000001</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -1105,14 +1097,14 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="3" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>363</v>
       </c>
       <c r="D7" s="6">
@@ -1121,13 +1113,13 @@
       <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>3.9E-2</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -1135,8 +1127,8 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:12" s="3" customFormat="1">
+      <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
@@ -1158,8 +1150,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:12" s="3" customFormat="1">
+      <c r="A9" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
@@ -1181,7 +1173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="3" customFormat="1">
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="I10" s="6"/>
